--- a/forecast_summary_B083GRVFXN.xlsx
+++ b/forecast_summary_B083GRVFXN.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B2" t="n">
         <v>62</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" t="n">
         <v>86</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" t="n">
         <v>80</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n">
         <v>45</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="n">
         <v>36</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="n">
         <v>34</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B11" t="n">
         <v>33</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
         <v>33</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="n">
         <v>32</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B14" t="n">
         <v>33</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" t="n">
         <v>32</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" t="n">
         <v>30</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" t="n">
         <v>32</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" t="n">
         <v>35</v>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>730</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>370</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>229</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>70</t>
         </is>
       </c>
     </row>
